--- a/Pieces.xlsx
+++ b/Pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\mini-rockets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83478C0-E332-4AD7-850B-B572BF1C8F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4C208-F09D-4DFA-881E-FCC9CE60E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -888,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C5254F-CA5E-4BBF-8FA1-536629AE1229}">
   <dimension ref="G2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pieces.xlsx
+++ b/Pieces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\mini-rockets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4C208-F09D-4DFA-881E-FCC9CE60E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3505B-DF2D-47DF-B8C8-3AAA6CBC8E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C5254F-CA5E-4BBF-8FA1-536629AE1229}">
   <dimension ref="G2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pieces.xlsx
+++ b/Pieces.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\mini-rockets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3505B-DF2D-47DF-B8C8-3AAA6CBC8E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF99F7-4EC2-4745-8A1D-474F9E486D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
-  <si>
-    <t>Combien</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
   <si>
     <t>URL</t>
   </si>
@@ -172,9 +170,6 @@
     <t>3.3K OHM 1% 0603</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/erj-3ekf3r32v/6049455</t>
-  </si>
-  <si>
     <t>LMK107B7225KA-TR</t>
   </si>
   <si>
@@ -187,21 +182,9 @@
     <t>Piece pour faire le mini-rockets board</t>
   </si>
   <si>
-    <t>VJ0603D471KXXAJ</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-vitramon/VJ0603D471KXXAJ/3280911</t>
-  </si>
-  <si>
     <t>2 pF 50V 0603</t>
   </si>
   <si>
-    <t>GRM188R71C104KA01D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM188R71C104KA01D/587060?s=N4IgTCBcDaIOICUCyBGAHGhB2FBhFADACwDSAggSgCIgC6AvkA</t>
-  </si>
-  <si>
     <t>0.1 uF 16V 0603</t>
   </si>
   <si>
@@ -220,9 +203,6 @@
     <t>CL21B106KOQNNNE</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/cl21b106koqnnnf/3894471</t>
-  </si>
-  <si>
     <t>47 uF 6.3v 1210</t>
   </si>
   <si>
@@ -244,9 +224,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>SML-LXR85GC-TR</t>
   </si>
   <si>
@@ -280,30 +257,18 @@
     <t>https://www.digikey.com/en/products/detail/weidm%C3%BCller/1716020000/269780?s=N4IgTCBcDaIIwHY4DYAMZWdSAugXyA</t>
   </si>
   <si>
-    <t>MMZ1608B601C</t>
-  </si>
-  <si>
     <t>600 ohm 100Mhz 0603</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/tdk-corporation/MMZ1608B601CTAH0/600533</t>
-  </si>
-  <si>
     <t>3.50 uH</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/7443556350/2175587?s=N4IgTCBcDaIOwBYEGYCsqBsaAMIC6AvkA</t>
   </si>
   <si>
-    <t>BLM21PG221SN1D</t>
-  </si>
-  <si>
     <t>220 Ohm @ 100MHz 0805</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/BLM21PG221SN1D/364909?s=N4IgTCBcDaIEIBkCyYCMAFA4mNBlAcqgCIgC6AvkA</t>
-  </si>
-  <si>
     <t>SI2302-TP</t>
   </si>
   <si>
@@ -410,13 +375,76 @@
   </si>
   <si>
     <t>Puissance (ma)</t>
+  </si>
+  <si>
+    <t>LED RA 565NM GREEN WTR CLR SMD 0805</t>
+  </si>
+  <si>
+    <t>Combien par pcb</t>
+  </si>
+  <si>
+    <t>Prix commander</t>
+  </si>
+  <si>
+    <t>combien commander</t>
+  </si>
+  <si>
+    <t>GRM1885C1H2R0CA01D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM1885C1H2R0CA01D/4421580?s=N4IgTCBcDaIOICUCyBGAHGgrAYRQCTAQAZsBBIlAERAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF3301V/1746376?s=N4IgTCBcDaIKICUBSBaAzHA0gMTWgDAIwBqIAugL5A</t>
+  </si>
+  <si>
+    <t>C0603C104K4RAC7081</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603C104K4RAC7081/6873865</t>
+  </si>
+  <si>
+    <t>742792022</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/742792022/1639018</t>
+  </si>
+  <si>
+    <t>742863160</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/742863160/2268591</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL21B106KOQNNNE/3888530</t>
+  </si>
+  <si>
+    <t>sample size</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>duree</t>
+  </si>
+  <si>
+    <t>sample per ms</t>
+  </si>
+  <si>
+    <t>memory max</t>
+  </si>
+  <si>
+    <t>SST25VF016B-50-4C-S2AF-TCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +495,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -548,28 +583,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -885,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C5254F-CA5E-4BBF-8FA1-536629AE1229}">
-  <dimension ref="G2:L47"/>
+  <dimension ref="G2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,777 +978,984 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="190.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="190.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:12" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="7:15" ht="27.75" x14ac:dyDescent="0.4">
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>2.68</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>2.68</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>2.68</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.67</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.43</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.67</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.74</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2.58</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1.76</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>3.93</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3.74</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>10.17</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1.78</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="7">
+        <v>100</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>6.47</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4.26</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3.52</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="O23" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9">
+      <c r="L24">
+        <v>25.95</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>8.75</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>4.26</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4.68</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2.46</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>4.2</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>20.79</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="7">
+        <v>15</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>80</v>
+      </c>
+      <c r="M33" s="22">
         <v>5</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="N33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2.7</v>
+      </c>
+      <c r="M36" s="22">
+        <v>3</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>28.44</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>28.98</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0.47</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
+        <v>40</v>
+      </c>
+      <c r="J40" s="10">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="M40" s="12">
+        <v>3</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>SUM(I5:I40)</f>
+        <v>164.04000000000002</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J5:J40)</f>
+        <v>83</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41" si="0">SUM(L5:L40)</f>
+        <v>340.44000000000005</v>
+      </c>
+      <c r="M41">
+        <f>SUM(M5:M40)</f>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L44">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="7:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9">
-        <v>2</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9">
-        <v>2</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9">
-        <v>2</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9">
-        <v>11</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
-        <v>2</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
-        <v>2</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="10">
-        <v>100</v>
-      </c>
-      <c r="J20" s="10">
-        <v>5</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <v>2</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
-        <v>2</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9">
-        <v>3</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9">
-        <v>2</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9">
-        <v>3</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="7:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="9">
-        <v>1</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="9">
-        <v>3</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="10">
-        <v>15</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9">
-        <v>1</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9">
-        <v>1</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="10">
-        <v>7</v>
-      </c>
-      <c r="J42" s="9">
-        <v>1</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="J44" s="9">
-        <v>1</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="9">
-        <v>1</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14">
-        <v>40</v>
-      </c>
-      <c r="J46" s="14">
-        <v>1</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="I47">
-        <f>SUM(I5:I46)</f>
-        <v>164.04000000000002</v>
-      </c>
-    </row>
+      <c r="N44" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{38849E51-87FC-4715-87E2-C061DE0F3E66}"/>
-    <hyperlink ref="L8" r:id="rId2" xr:uid="{984C859F-ABF8-465D-B122-0FC08C012729}"/>
-    <hyperlink ref="L6" r:id="rId3" xr:uid="{63A9E45C-60D3-4B98-A116-99AA484242D8}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{CC191CEE-6204-44A0-84C4-E3672A77ECB2}"/>
-    <hyperlink ref="L11" r:id="rId5" xr:uid="{6FFC65D1-655F-434D-B518-1D884684A23A}"/>
-    <hyperlink ref="L12" r:id="rId6" xr:uid="{462AC685-8242-4790-A1ED-E7E11B17ECC2}"/>
-    <hyperlink ref="L14" r:id="rId7" xr:uid="{90423F84-75D2-4756-8957-556539224092}"/>
-    <hyperlink ref="L13" r:id="rId8" xr:uid="{0078563A-E1CD-4AE8-B676-31D53AF7B7DA}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{88E12F94-C345-4BA4-BCFA-C8C5B333D74A}"/>
-    <hyperlink ref="L9" r:id="rId10" xr:uid="{DBE8C25B-5AFD-4BDE-9FCA-3B50647F53AB}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{F308861C-5086-49E1-BE1B-B86F579453EF}"/>
-    <hyperlink ref="L16" r:id="rId12" xr:uid="{023E569B-1D26-4348-A06D-0D70ABFA0117}"/>
-    <hyperlink ref="L17" r:id="rId13" xr:uid="{EF2946D4-38EA-4915-8CDD-5220BFDCBA15}"/>
-    <hyperlink ref="L18" r:id="rId14" xr:uid="{CC547956-0EB7-4EE0-B715-D696968BD64C}"/>
-    <hyperlink ref="L19" r:id="rId15" xr:uid="{823B9932-6403-4B3A-8614-40AE627D90CD}"/>
-    <hyperlink ref="L20" r:id="rId16" xr:uid="{79A8563A-D04E-4263-BAE5-59B5BE7924F7}"/>
-    <hyperlink ref="L21" r:id="rId17" xr:uid="{57E6C968-732E-4A01-965B-9AC47CFE6816}"/>
-    <hyperlink ref="L22" r:id="rId18" xr:uid="{FD889776-BF7E-48A5-BFF7-898AB1E97E4A}"/>
-    <hyperlink ref="L36" r:id="rId19" xr:uid="{70491CE5-8C7E-4777-BA98-BD3A27F17897}"/>
-    <hyperlink ref="L37" r:id="rId20" xr:uid="{63ACC172-06C4-42A9-A9FA-8F5A5E511CAE}"/>
-    <hyperlink ref="L38" r:id="rId21" xr:uid="{A2C5D66D-C2FA-4F34-88C4-FF0043ED1991}"/>
-    <hyperlink ref="L24" r:id="rId22" xr:uid="{CBC56E5F-25E9-488F-B01C-4EF4952D634C}"/>
-    <hyperlink ref="L25" r:id="rId23" xr:uid="{58AC8B4A-929F-4D2E-B106-76B3D258C080}"/>
-    <hyperlink ref="L26" r:id="rId24" xr:uid="{5E9454E5-65EF-485A-9D8D-A6EBB498B665}"/>
-    <hyperlink ref="L27" r:id="rId25" xr:uid="{8D293DA0-D1D7-4827-94DB-BB02157B2B64}"/>
-    <hyperlink ref="L35" r:id="rId26" xr:uid="{5396E9C0-2CF1-4D3F-8639-4A60F48E4ACE}"/>
-    <hyperlink ref="L39" r:id="rId27" xr:uid="{1DC82807-68DD-4E9C-B957-A3BF5EB29B4D}"/>
-    <hyperlink ref="L40" r:id="rId28" xr:uid="{A09B2166-DC2F-40F5-A2C8-0E65C8F365AF}"/>
-    <hyperlink ref="L43" r:id="rId29" xr:uid="{49E9D9CB-5F82-4CD8-8835-12DDC8C9EE70}"/>
-    <hyperlink ref="L44" r:id="rId30" xr:uid="{9EF6799C-7A5B-4BA9-81D7-B646CA4F02EF}"/>
-    <hyperlink ref="L45" r:id="rId31" xr:uid="{FA4A9260-D638-4374-A6D7-2AAB3EF4D44F}"/>
-    <hyperlink ref="L42" r:id="rId32" xr:uid="{AB108709-EAF9-48C1-8E55-69CC2D67E925}"/>
-    <hyperlink ref="L41" r:id="rId33" xr:uid="{0C9E70B1-B7E7-450E-8C7E-92E8C07EF018}"/>
-    <hyperlink ref="L23" r:id="rId34" xr:uid="{44A5A07D-594D-4624-B4F3-5C7AE6CCBD4D}"/>
-    <hyperlink ref="L34" r:id="rId35" xr:uid="{1F63A02F-BC5D-4F6B-A97F-3AC85344D0B3}"/>
-    <hyperlink ref="L46" r:id="rId36" xr:uid="{C400AB46-4FA9-4483-83AA-5FA6B84DA252}"/>
+    <hyperlink ref="O7" r:id="rId1" xr:uid="{38849E51-87FC-4715-87E2-C061DE0F3E66}"/>
+    <hyperlink ref="O8" r:id="rId2" xr:uid="{984C859F-ABF8-465D-B122-0FC08C012729}"/>
+    <hyperlink ref="O6" r:id="rId3" xr:uid="{63A9E45C-60D3-4B98-A116-99AA484242D8}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{CC191CEE-6204-44A0-84C4-E3672A77ECB2}"/>
+    <hyperlink ref="O11" r:id="rId5" xr:uid="{6FFC65D1-655F-434D-B518-1D884684A23A}"/>
+    <hyperlink ref="O12" r:id="rId6" xr:uid="{462AC685-8242-4790-A1ED-E7E11B17ECC2}"/>
+    <hyperlink ref="O14" r:id="rId7" xr:uid="{90423F84-75D2-4756-8957-556539224092}"/>
+    <hyperlink ref="O10" r:id="rId8" xr:uid="{88E12F94-C345-4BA4-BCFA-C8C5B333D74A}"/>
+    <hyperlink ref="O9" r:id="rId9" xr:uid="{DBE8C25B-5AFD-4BDE-9FCA-3B50647F53AB}"/>
+    <hyperlink ref="O15" r:id="rId10" xr:uid="{F308861C-5086-49E1-BE1B-B86F579453EF}"/>
+    <hyperlink ref="O16" r:id="rId11" xr:uid="{023E569B-1D26-4348-A06D-0D70ABFA0117}"/>
+    <hyperlink ref="O17" r:id="rId12" xr:uid="{EF2946D4-38EA-4915-8CDD-5220BFDCBA15}"/>
+    <hyperlink ref="O18" r:id="rId13" xr:uid="{CC547956-0EB7-4EE0-B715-D696968BD64C}"/>
+    <hyperlink ref="O19" r:id="rId14" xr:uid="{823B9932-6403-4B3A-8614-40AE627D90CD}"/>
+    <hyperlink ref="O20" r:id="rId15" xr:uid="{79A8563A-D04E-4263-BAE5-59B5BE7924F7}"/>
+    <hyperlink ref="O21" r:id="rId16" xr:uid="{57E6C968-732E-4A01-965B-9AC47CFE6816}"/>
+    <hyperlink ref="O22" r:id="rId17" xr:uid="{FD889776-BF7E-48A5-BFF7-898AB1E97E4A}"/>
+    <hyperlink ref="O30" r:id="rId18" xr:uid="{70491CE5-8C7E-4777-BA98-BD3A27F17897}"/>
+    <hyperlink ref="O31" r:id="rId19" xr:uid="{63ACC172-06C4-42A9-A9FA-8F5A5E511CAE}"/>
+    <hyperlink ref="O32" r:id="rId20" xr:uid="{A2C5D66D-C2FA-4F34-88C4-FF0043ED1991}"/>
+    <hyperlink ref="O24" r:id="rId21" xr:uid="{CBC56E5F-25E9-488F-B01C-4EF4952D634C}"/>
+    <hyperlink ref="O25" r:id="rId22" xr:uid="{58AC8B4A-929F-4D2E-B106-76B3D258C080}"/>
+    <hyperlink ref="O26" r:id="rId23" xr:uid="{5E9454E5-65EF-485A-9D8D-A6EBB498B665}"/>
+    <hyperlink ref="O27" r:id="rId24" xr:uid="{8D293DA0-D1D7-4827-94DB-BB02157B2B64}"/>
+    <hyperlink ref="O29" r:id="rId25" xr:uid="{5396E9C0-2CF1-4D3F-8639-4A60F48E4ACE}"/>
+    <hyperlink ref="O33" r:id="rId26" xr:uid="{1DC82807-68DD-4E9C-B957-A3BF5EB29B4D}"/>
+    <hyperlink ref="O34" r:id="rId27" xr:uid="{A09B2166-DC2F-40F5-A2C8-0E65C8F365AF}"/>
+    <hyperlink ref="O37" r:id="rId28" xr:uid="{49E9D9CB-5F82-4CD8-8835-12DDC8C9EE70}"/>
+    <hyperlink ref="O38" r:id="rId29" xr:uid="{9EF6799C-7A5B-4BA9-81D7-B646CA4F02EF}"/>
+    <hyperlink ref="O39" r:id="rId30" xr:uid="{FA4A9260-D638-4374-A6D7-2AAB3EF4D44F}"/>
+    <hyperlink ref="O36" r:id="rId31" xr:uid="{AB108709-EAF9-48C1-8E55-69CC2D67E925}"/>
+    <hyperlink ref="O35" r:id="rId32" xr:uid="{0C9E70B1-B7E7-450E-8C7E-92E8C07EF018}"/>
+    <hyperlink ref="O23" r:id="rId33" xr:uid="{44A5A07D-594D-4624-B4F3-5C7AE6CCBD4D}"/>
+    <hyperlink ref="O28" r:id="rId34" xr:uid="{1F63A02F-BC5D-4F6B-A97F-3AC85344D0B3}"/>
+    <hyperlink ref="O40" r:id="rId35" xr:uid="{C400AB46-4FA9-4483-83AA-5FA6B84DA252}"/>
+    <hyperlink ref="O13" r:id="rId36" xr:uid="{0078563A-E1CD-4AE8-B676-31D53AF7B7DA}"/>
+    <hyperlink ref="N44" r:id="rId37" display="https://www.digikey.ca/en/products/detail/microchip-technology/SST25VF016B-50-4C-S2AF-T/2299430" xr:uid="{775CBE35-EDAA-4D90-B75D-7ABB1CEC941E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1675,7 +1963,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$6:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G34:G45 G47:G76 G21:G27 G29:G32 G5:G19</xm:sqref>
+          <xm:sqref>G47:G76 G21:G39 G5:G19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91638CD4-4D7E-4BF9-A735-AADB47737B6A}">
           <x14:formula1>
@@ -1687,7 +1975,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$6:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>G33 G46</xm:sqref>
+          <xm:sqref>G40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1707,100 +1995,192 @@
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEB958F-12D9-4E82-A4CA-5FF7D183F0D5}">
+  <dimension ref="C6:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9">
+        <v>3600000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <f>D9/D6*D7</f>
+        <v>92160000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>(16*1024*1024)/512</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>D16*20</f>
+        <v>655360</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>D17/1000</f>
+        <v>655.36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>D18/60</f>
+        <v>10.922666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pieces.xlsx
+++ b/Pieces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\mini-rockets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF99F7-4EC2-4745-8A1D-474F9E486D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9035D12E-66DB-4759-AA67-19D2116F2C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B2ECC38-15C7-4574-83EF-0C8BB6EF0B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
   <si>
     <t>URL</t>
   </si>
@@ -314,15 +314,9 @@
     <t>SST25VF512A-33-4C-SAE</t>
   </si>
   <si>
-    <t>512 kb</t>
-  </si>
-  <si>
     <t>MS560702BA03-50</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/microchip-technology/SST25VF512A-33-4C-SAE/2297812</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/te-connectivity-measurement-specialties/MS560702BA03-50/4700931?s=N4IgTCBcDaILIGUCsA2ADAdjWAQgQTQGYBaJNEAXQF8g</t>
   </si>
   <si>
@@ -438,6 +432,15 @@
   </si>
   <si>
     <t>SST25VF016B-50-4C-S2AF-TCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/microchip-technology/SST25VF016B-50-4C-S2AF-T/2299430https://www.digikey.ca/en/products/detail/microchip-technology/SST25VF016B-50-4C-S2AF-T/2299430</t>
+  </si>
+  <si>
+    <t>16 mb</t>
+  </si>
+  <si>
+    <t>512 mb</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -650,7 +653,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -969,7 +971,7 @@
   <dimension ref="G2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,17 +1008,17 @@
         <v>25</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>20</v>
@@ -1214,7 +1216,7 @@
         <v>42</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="7:15" x14ac:dyDescent="0.25">
@@ -1259,10 +1261,10 @@
         <v>15</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="7:15" x14ac:dyDescent="0.25">
@@ -1283,10 +1285,10 @@
         <v>70</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="7:15" x14ac:dyDescent="0.25">
@@ -1334,7 +1336,7 @@
         <v>54</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.25">
@@ -1390,7 +1392,7 @@
         <v>61</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" s="7">
         <v>100</v>
@@ -1429,10 +1431,10 @@
         <v>6</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.25">
@@ -1477,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.25">
@@ -1501,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>75</v>
@@ -1525,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="7:15" x14ac:dyDescent="0.25">
@@ -1584,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="6">
@@ -1597,10 +1599,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="7:15" x14ac:dyDescent="0.25">
@@ -1643,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>69</v>
@@ -1687,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>72</v>
@@ -1768,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="I36" s="7">
         <v>7</v>
@@ -1777,16 +1779,16 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2.7</v>
+        <v>20</v>
       </c>
       <c r="M36" s="22">
         <v>3</v>
       </c>
-      <c r="N36" s="17" t="s">
-        <v>91</v>
+      <c r="N36" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
@@ -1807,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="N37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
@@ -1831,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
@@ -1842,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="6">
@@ -1855,15 +1857,15 @@
         <v>3</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10">
@@ -1880,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
@@ -1897,19 +1899,25 @@
       </c>
       <c r="L41">
         <f t="shared" ref="L41" si="0">SUM(L5:L40)</f>
-        <v>340.44000000000005</v>
+        <v>357.74000000000007</v>
       </c>
       <c r="M41">
         <f>SUM(M5:M40)</f>
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="L44">
-        <v>20</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>133</v>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43">
+        <v>2.7</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="7:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1952,10 +1960,9 @@
     <hyperlink ref="O28" r:id="rId34" xr:uid="{1F63A02F-BC5D-4F6B-A97F-3AC85344D0B3}"/>
     <hyperlink ref="O40" r:id="rId35" xr:uid="{C400AB46-4FA9-4483-83AA-5FA6B84DA252}"/>
     <hyperlink ref="O13" r:id="rId36" xr:uid="{0078563A-E1CD-4AE8-B676-31D53AF7B7DA}"/>
-    <hyperlink ref="N44" r:id="rId37" display="https://www.digikey.ca/en/products/detail/microchip-technology/SST25VF016B-50-4C-S2AF-T/2299430" xr:uid="{775CBE35-EDAA-4D90-B75D-7ABB1CEC941E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1963,7 +1970,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$6:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G47:G76 G21:G39 G5:G19</xm:sqref>
+          <xm:sqref>G47:G76 G21:G39 G5:G19 G43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91638CD4-4D7E-4BF9-A735-AADB47737B6A}">
           <x14:formula1>
@@ -2085,7 +2092,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2109,35 +2116,35 @@
   <sheetData>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7">
         <v>512</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>3600000</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
@@ -2145,14 +2152,14 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <f>D9/D6*D7</f>
         <v>92160000</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
